--- a/biology/Botanique/Dal/Dal.xlsx
+++ b/biology/Botanique/Dal/Dal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le mot dal (sanskrit : दाल, IAST : dāla, API : [d̪aːl]) désigne en Inde et au Népal plusieurs légumineuses de type lentille. Par analogie, c'est le nom donné à un plat indien à base de légumineuses.
@@ -514,7 +526,9 @@
           <t>Principales variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Inde, on connaît plus de cinquante variétés de légumineuses. Les dals les plus connus sont les suivants :
 chana dal, souvent traduit à tort par « pois chiche ». Il s'agit d'une variété indienne de « petit » pois chiche. Le goût est différent du pois chiche consommé en France ;
@@ -554,15 +568,122 @@
           <t>Les différents types de plats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe différents types de dahl de lentilles nommés selon la méthode de cuisson ou les aliments utilisés.
-Le dal tadka
-À base de lentilles corail (masoor dal) ou lentilles jaunes (moong dal), le terme « tadka » signifie ici que les épices et condiments contenus dans ce plat sont frits[1].
-Le dal makhani
-Ce plat utilise des urad dal non décortiqués combinés à des haricots rouges.
-Le dal fry
-Ce plat utilise des lentilles corail et des pois chiches cassés (chana dall)[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les différents types de plats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le dal tadka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À base de lentilles corail (masoor dal) ou lentilles jaunes (moong dal), le terme « tadka » signifie ici que les épices et condiments contenus dans ce plat sont frits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les différents types de plats</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le dal makhani</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce plat utilise des urad dal non décortiqués combinés à des haricots rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dal</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les différents types de plats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le dal fry</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce plat utilise des lentilles corail et des pois chiches cassés (chana dall).
 </t>
         </is>
       </c>
